--- a/results/MAE/result.xlsx
+++ b/results/MAE/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Color Quantization\NEW F\results\MAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F75D8F-EE4B-444B-AB30-D9A42692431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7845C-36C6-418D-8619-8B102FA591A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>AIRPLANE</t>
   </si>
   <si>
-    <t>MANDRIL</t>
-  </si>
-  <si>
     <t>PEPPER</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Size of Palette</t>
+  </si>
+  <si>
+    <t>MANDRILL</t>
   </si>
 </sst>
 </file>
@@ -574,18 +574,18 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.7265625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -601,7 +601,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="7">
@@ -623,7 +623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>8.4802513122558594</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -673,7 +673,7 @@
         <v>10.290771484375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -697,7 +697,7 @@
         <v>19.572269306182861</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
@@ -721,7 +721,7 @@
         <v>12.87265777587891</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
@@ -745,7 +745,7 @@
         <v>9.0418472290039063</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -771,7 +771,7 @@
         <v>6.5544929504394531</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="10" t="s">
         <v>4</v>
@@ -795,7 +795,7 @@
         <v>8.568511962890625</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="10" t="s">
         <v>5</v>
@@ -819,7 +819,7 @@
         <v>12.56970894622803</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="10" t="s">
         <v>6</v>
@@ -843,7 +843,7 @@
         <v>12.7349853515625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
         <v>7</v>
@@ -867,9 +867,9 @@
         <v>6.5594902038574219</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3</v>
@@ -893,7 +893,7 @@
         <v>3.8804969787597661</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>5.9456977844238281</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -941,7 +941,7 @@
         <v>20.840096805572511</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
         <v>6</v>
@@ -965,7 +965,7 @@
         <v>6.8552207946777344</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
         <v>7</v>
@@ -989,9 +989,9 @@
         <v>10.256832122802731</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>3</v>
@@ -1015,7 +1015,7 @@
         <v>11.7949333190918</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
         <v>4</v>
@@ -1039,7 +1039,7 @@
         <v>13.1033935546875</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
         <v>5</v>
@@ -1063,7 +1063,7 @@
         <v>26.15765410995483</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>6</v>
@@ -1087,7 +1087,7 @@
         <v>17.893169403076168</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="11" t="s">
         <v>7</v>
@@ -1111,9 +1111,9 @@
         <v>12.680587768554689</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>3</v>
@@ -1137,7 +1137,7 @@
         <v>11.2652473449707</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="10" t="s">
         <v>4</v>
@@ -1161,7 +1161,7 @@
         <v>13.050918579101561</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
         <v>5</v>
@@ -1185,7 +1185,7 @@
         <v>22.52698556137085</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>19.247188568115231</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="11" t="s">
         <v>7</v>
@@ -1233,9 +1233,9 @@
         <v>11.715827941894529</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         <v>10.558231608072919</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
         <v>4</v>
@@ -1283,7 +1283,7 @@
         <v>12.375500488281251</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
         <v>5</v>
@@ -1307,7 +1307,7 @@
         <v>22.577321744791671</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="10" t="s">
         <v>6</v>
@@ -1331,7 +1331,7 @@
         <v>17.330615234374999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="11" t="s">
         <v>7</v>

--- a/results/MAE/result.xlsx
+++ b/results/MAE/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7845C-36C6-418D-8619-8B102FA591A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48354C9D-CF20-487C-A6C8-5952375C543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +265,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,8 +589,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,22 +645,22 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="17">
         <v>29.06291580200195</v>
       </c>
       <c r="D3" s="1">
         <v>25.179092407226559</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>19.050430297851559</v>
       </c>
       <c r="F3" s="1">
         <v>15.48832321166992</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="17">
         <v>10.81484222412109</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="19">
         <v>8.4802513122558594</v>
       </c>
     </row>
@@ -729,13 +744,13 @@
       <c r="C7" s="5">
         <v>32.342308044433587</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="18">
         <v>24.69297027587891</v>
       </c>
       <c r="E7" s="5">
         <v>19.1278076171875</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="18">
         <v>14.651229858398439</v>
       </c>
       <c r="G7" s="5">
@@ -752,22 +767,22 @@
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>24.141635894775391</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <v>16.9615592956543</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>13.409912109375</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="17">
         <v>10.387886047363279</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="20">
         <v>8.9059333801269531</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="19">
         <v>6.5544929504394531</v>
       </c>
     </row>
@@ -860,7 +875,7 @@
       <c r="F12" s="5">
         <v>10.666141510009769</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="18">
         <v>8.4479484558105469</v>
       </c>
       <c r="H12" s="6">
@@ -877,19 +892,19 @@
       <c r="C13" s="1">
         <v>57.490398406982422</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="20">
         <v>37.411914825439453</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="17">
         <v>28.18648529052734</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="17">
         <v>18.51128005981445</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="17">
         <v>9.4547004699707031</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="19">
         <v>3.8804969787597661</v>
       </c>
     </row>
@@ -970,10 +985,10 @@
       <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="18">
         <v>50.011150360107422</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="18">
         <v>37.339473724365227</v>
       </c>
       <c r="E17" s="5">
@@ -1118,10 +1133,10 @@
       <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="17">
         <v>37.978107452392578</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="17">
         <v>29.037239074707031</v>
       </c>
       <c r="E23" s="1">
@@ -1130,7 +1145,7 @@
       <c r="F23" s="1">
         <v>18.460659027099609</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="17">
         <v>13.42692947387695</v>
       </c>
       <c r="H23" s="2">
@@ -1220,16 +1235,16 @@
       <c r="D27" s="5">
         <v>29.46004486083984</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="18">
         <v>21.87339019775391</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="18">
         <v>17.72365570068359</v>
       </c>
       <c r="G27" s="5">
         <v>14.381362915039061</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="21">
         <v>11.715827941894529</v>
       </c>
     </row>
@@ -1252,10 +1267,10 @@
       <c r="F28" s="1">
         <v>18.961116536458331</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="17">
         <v>13.354626464843751</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="19">
         <v>10.558231608072919</v>
       </c>
     </row>
@@ -1336,16 +1351,16 @@
       <c r="B32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="18">
         <v>43.203828938802083</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="18">
         <v>31.465588378906251</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="18">
         <v>24.600199381510421</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="18">
         <v>18.530000813802079</v>
       </c>
       <c r="G32" s="5">

--- a/results/MAE/result.xlsx
+++ b/results/MAE/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\College\win21\LSM\agarwalvarun1-Color-Quantization\results\MAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48354C9D-CF20-487C-A6C8-5952375C543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A164FF0-E83C-45A9-AECD-ACD759FB5669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,23 +82,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,30 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,34 +239,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +591,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,772 +603,772 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="7">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="2">
         <v>16</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="2">
         <v>32</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>64</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <v>128</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <v>29.06291580200195</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="12">
         <v>25.179092407226559</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>19.050430297851559</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="12">
         <v>15.48832321166992</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>10.81484222412109</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="13">
         <v>8.4802513122558594</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="14">
         <v>36.760684967041023</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="14">
         <v>30.526809692382809</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="14">
         <v>28.63496017456055</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="14">
         <v>19.769889831542969</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="14">
         <v>13.30552291870117</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="15">
         <v>10.290771484375</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="14">
         <v>60.996862537384047</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="14">
         <v>45.106351684570321</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="14">
         <v>35.071157936096192</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="14">
         <v>29.32172499465943</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="14">
         <v>23.02027635955811</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="15">
         <v>19.572269306182861</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="14">
         <v>70.155662536621094</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="14">
         <v>51.141483306884773</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="14">
         <v>32.642013549804688</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="14">
         <v>24.939594268798832</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="14">
         <v>17.736221313476559</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="15">
         <v>12.87265777587891</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <v>32.342308044433587</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>24.69297027587891</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="16">
         <v>19.1278076171875</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>14.651229858398439</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="16">
         <v>11.35626220703125</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="18">
         <v>9.0418472290039063</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>24.141635894775391</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>16.9615592956543</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>13.409912109375</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>10.387886047363279</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="12">
         <v>8.9059333801269531</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <v>6.5544929504394531</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="14">
         <v>34.679012298583977</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="14">
         <v>23.876960754394531</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="14">
         <v>21.904033660888668</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="14">
         <v>12.98801422119141</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="14">
         <v>9.5789527893066406</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="15">
         <v>8.568511962890625</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="14">
         <v>42.086163917541512</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>32.079632812500009</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="14">
         <v>22.850756099700931</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="14">
         <v>19.35657034301758</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="14">
         <v>15.17468228530884</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="15">
         <v>12.56970894622803</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="14">
         <v>75.613216400146484</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="14">
         <v>55.18109130859375</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="14">
         <v>35.192138671875</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="14">
         <v>21.394084930419918</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="14">
         <v>18.25776290893555</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="15">
         <v>12.7349853515625</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="16">
         <v>24.904941558837891</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="16">
         <v>19.374019622802731</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="16">
         <v>15.17924880981445</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="16">
         <v>10.666141510009769</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>8.4479484558105469</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="18">
         <v>6.5594902038574219</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <v>57.490398406982422</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="12">
         <v>37.411914825439453</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>28.18648529052734</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>18.51128005981445</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <v>9.4547004699707031</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <v>3.8804969787597661</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="14">
         <v>73.745956420898438</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>47.244827270507813</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="14">
         <v>32.741851806640618</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="14">
         <v>25.290359497070309</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="14">
         <v>15.3022575378418</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="15">
         <v>5.9456977844238281</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="14">
         <v>98.594154781341572</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>70.118773952484133</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="14">
         <v>52.120729099273689</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <v>37.852197010040292</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="14">
         <v>27.159203975677489</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="15">
         <v>20.840096805572511</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="14">
         <v>72.638431549072266</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="14">
         <v>47.237930297851563</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="14">
         <v>33.654033660888672</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="14">
         <v>20.892959594726559</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="14">
         <v>12.375514984130859</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="15">
         <v>6.8552207946777344</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>50.011150360107422</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>37.339473724365227</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="16">
         <v>28.965091705322269</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="16">
         <v>21.713504791259769</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="16">
         <v>16.15742111206055</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="18">
         <v>10.256832122802731</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="12">
         <v>43.026535034179688</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>31.464046478271481</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>25.594020843505859</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>19.383152008056641</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <v>14.671298980712891</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="19">
         <v>11.7949333190918</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="14">
         <v>54.967487335205078</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="14">
         <v>34.860790252685547</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="14">
         <v>30.003620147705082</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="14">
         <v>26.347087860107418</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="14">
         <v>19.194900512695309</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="15">
         <v>13.1033935546875</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="14">
         <v>76.03314280700684</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="14">
         <v>59.244443603515627</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="14">
         <v>45.61316923904419</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="14">
         <v>36.54538999176026</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="14">
         <v>30.581138080596929</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="15">
         <v>26.15765410995483</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="14">
         <v>105.7091178894043</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="14">
         <v>66.879581451416016</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="14">
         <v>46.142765045166023</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="14">
         <v>32.681434631347663</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="14">
         <v>23.899616241455082</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="15">
         <v>17.893169403076168</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="16">
         <v>42.568977355957031</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="16">
         <v>30.822967529296879</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="16">
         <v>25.280319213867191</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="16">
         <v>20.49072265625</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="16">
         <v>16.34783935546875</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="18">
         <v>12.680587768554689</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="11">
         <v>37.978107452392578</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <v>29.037239074707031</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>24.186130523681641</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="12">
         <v>18.460659027099609</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="11">
         <v>13.42692947387695</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="19">
         <v>11.2652473449707</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="14">
         <v>54.757007598876953</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="14">
         <v>36.357563018798828</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="14">
         <v>29.402473449707031</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="14">
         <v>25.229228973388668</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="14">
         <v>17.22586822509766</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="15">
         <v>13.050918579101561</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="14">
         <v>67.147656295776386</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="14">
         <v>52.07434087371827</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="14">
         <v>43.68531313705445</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="14">
         <v>36.374227077484143</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="14">
         <v>28.881426563262941</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="15">
         <v>22.52698556137085</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="14">
         <v>109.3127899169922</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="14">
         <v>61.129055023193359</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="14">
         <v>49.620403289794922</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="14">
         <v>37.577449798583977</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="14">
         <v>24.750274658203121</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="15">
         <v>19.247188568115231</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="16">
         <v>39.705535888671882</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="16">
         <v>29.46004486083984</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>21.87339019775391</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>17.72365570068359</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="16">
         <v>14.381362915039061</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>11.715827941894529</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="12">
         <v>53.791621907552077</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="12">
         <v>33.992118326822919</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="12">
         <v>26.423132324218749</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="12">
         <v>18.961116536458331</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="11">
         <v>13.354626464843751</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <v>10.558231608072919</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="14">
         <v>69.603405761718747</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="14">
         <v>36.566516113281253</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="14">
         <v>29.696309407552079</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="14">
         <v>23.581062825520831</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="14">
         <v>17.131734212239579</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="15">
         <v>12.375500488281251</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="14">
         <v>77.613906030273441</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="14">
         <v>57.675040397135433</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="14">
         <v>42.550202616373703</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="14">
         <v>33.581595556640629</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="14">
         <v>27.689271236165371</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="15">
         <v>22.577321744791671</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="14">
         <v>92.412841796875</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="14">
         <v>60.64396565755208</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="14">
         <v>40.945043945312499</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="14">
         <v>32.999645996093747</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="14">
         <v>23.85272216796875</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="15">
         <v>17.330615234374999</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>43.203828938802083</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>31.465588378906251</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>24.600199381510421</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <v>18.530000813802079</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="16">
         <v>14.640531412760421</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="18">
         <v>11.57100016276042</v>
       </c>
     </row>
